--- a/07-customer-test case.xlsx
+++ b/07-customer-test case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\SQA\Automation notes\drive-download-20231002T131654Z-001\manual testing project\Ecommerce\ManualTestingProject_Guru99Banking-main\ManualTestingProject_Guru99Banking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\report\Manual-Testing-Project_Guru99-Banking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B041908C-0107-48C5-81D5-B04CC1952ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9827458A-3219-444D-B11F-1038FB1FF7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{D11734C0-FF2A-4DBD-B16E-24831ACF0048}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{D11734C0-FF2A-4DBD-B16E-24831ACF0048}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Enquiry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="154">
   <si>
     <t>Project Name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>As expected</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   <si>
     <t>You are not authorize to do
  fund transfer</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Enter special character
@@ -595,7 +589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,12 +605,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -729,9 +717,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1056,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC4168-EE8A-4FDF-B980-3969379A014C}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,10 +1099,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1163,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>16</v>
@@ -1180,86 +1165,74 @@
       <c r="I12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="H13" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4117A10-4A87-4835-80DE-7EEC68802355}">
   <dimension ref="C3:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,10 +1306,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1382,88 +1355,79 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>17</v>
@@ -1477,71 +1441,62 @@
       <c r="I15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="16" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>17</v>
@@ -1555,86 +1510,74 @@
       <c r="I18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:9" ht="63" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1647,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD4705E-66C7-4225-B436-A73F57C00A30}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,10 +1648,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1754,36 +1697,34 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>17</v>
@@ -1797,61 +1738,55 @@
       <c r="I13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="J15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B1C6D-0E3B-4140-879A-4D70D133624F}">
   <dimension ref="C3:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,10 +1855,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1969,363 +1904,321 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="G16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="I16" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="F17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="8" t="s">
+      <c r="G17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="D18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="H22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
+      <c r="E23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="F23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="G23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="H23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="I23" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="D24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
+      <c r="F24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="H24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="I24" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+      <c r="E25" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="F25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="G25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="H25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="I25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2337,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC168B4C-8E93-491E-A0DC-B89A15B7845A}">
   <dimension ref="C3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,10 +2288,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2444,172 +2337,154 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="11" t="s">
+    </row>
+    <row r="17" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>19</v>
@@ -2617,34 +2492,28 @@
       <c r="I18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2656,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DC9E97-32BF-4103-AD92-8508276A8DAB}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,10 +2583,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2734,7 +2603,7 @@
     </row>
     <row r="11" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
@@ -2760,106 +2629,94 @@
     </row>
     <row r="12" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="E12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="I14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="H15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
